--- a/Report Template/groupevaluatetemplate.xlsx
+++ b/Report Template/groupevaluatetemplate.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr65\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdev2\Enterprise-Web-Software-Development\Report Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70485961-99D3-4689-A50D-569AC5ABE09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="4080" yWindow="4890" windowWidth="14025" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Attendance</t>
   </si>
@@ -32,43 +39,13 @@
     <t>Timekeeping</t>
   </si>
   <si>
-    <t>Initiative</t>
-  </si>
-  <si>
     <t>FACTOR</t>
-  </si>
-  <si>
-    <t>PERSON A</t>
   </si>
   <si>
     <t>PERSON</t>
   </si>
   <si>
-    <t>PERSON C</t>
-  </si>
-  <si>
-    <t>FACTOR D</t>
-  </si>
-  <si>
-    <t>FACTOR E</t>
-  </si>
-  <si>
-    <t>FACTOR F</t>
-  </si>
-  <si>
-    <t>FACTOR G</t>
-  </si>
-  <si>
-    <t>PERSON D</t>
-  </si>
-  <si>
-    <t>PERSON E</t>
-  </si>
-  <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PERSON B</t>
   </si>
   <si>
     <t>WEIGHT</t>
@@ -100,15 +77,48 @@
   <si>
     <t>Do not edit other cells unless adding extra columns or rows</t>
   </si>
+  <si>
+    <t>Mr. Trung</t>
+  </si>
+  <si>
+    <t>Mr. Phong</t>
+  </si>
+  <si>
+    <t>Mr. Hieu</t>
+  </si>
+  <si>
+    <t>Ms. Hue</t>
+  </si>
+  <si>
+    <t>Mr. Thong</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Adapt</t>
+  </si>
+  <si>
+    <t>Code Skill</t>
+  </si>
+  <si>
+    <t>Engage</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +134,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -187,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -196,10 +230,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,7 +255,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -263,7 +300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -387,7 +423,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -407,51 +442,56 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>PERSON A</c:v>
+                  <c:v>Mr. Trung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PERSON B</c:v>
+                  <c:v>Mr. Phong</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PERSON C</c:v>
+                  <c:v>Mr. Hieu</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PERSON D</c:v>
+                  <c:v>Ms. Hue</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PERSON E</c:v>
+                  <c:v>Mr. Thong</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0697674418604652</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8139534883720927</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3953488372093021</c:v>
+                  <c:v>7.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8604651162790695</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0930232558139537</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0E7-40F8-9767-CE2F28CE11D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
@@ -629,7 +669,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -668,7 +708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -714,7 +753,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PERSON A</c:v>
+                  <c:v>Mr. Trung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -731,9 +770,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Attendance</c:v>
                 </c:pt>
@@ -741,53 +780,64 @@
                   <c:v>Timekeeping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initiative</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FACTOR D</c:v>
+                  <c:v>Adapt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FACTOR E</c:v>
+                  <c:v>Code Skill</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FACTOR F</c:v>
+                  <c:v>Engage</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FACTOR G</c:v>
+                  <c:v>Criteria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teamwork</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$11</c:f>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D457-4778-99E4-695079D555C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -798,7 +848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PERSON B</c:v>
+                  <c:v>Mr. Phong</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,9 +865,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Attendance</c:v>
                 </c:pt>
@@ -825,53 +875,64 @@
                   <c:v>Timekeeping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initiative</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FACTOR D</c:v>
+                  <c:v>Adapt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FACTOR E</c:v>
+                  <c:v>Code Skill</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FACTOR F</c:v>
+                  <c:v>Engage</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FACTOR G</c:v>
+                  <c:v>Criteria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teamwork</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$11</c:f>
+              <c:f>Sheet1!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D457-4778-99E4-695079D555C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -882,7 +943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PERSON C</c:v>
+                  <c:v>Mr. Hieu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -899,9 +960,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Attendance</c:v>
                 </c:pt>
@@ -909,53 +970,64 @@
                   <c:v>Timekeeping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initiative</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FACTOR D</c:v>
+                  <c:v>Adapt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FACTOR E</c:v>
+                  <c:v>Code Skill</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FACTOR F</c:v>
+                  <c:v>Engage</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FACTOR G</c:v>
+                  <c:v>Criteria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teamwork</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$11</c:f>
+              <c:f>Sheet1!$G$5:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D457-4778-99E4-695079D555C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -966,7 +1038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PERSON D</c:v>
+                  <c:v>Ms. Hue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -983,9 +1055,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Attendance</c:v>
                 </c:pt>
@@ -993,53 +1065,64 @@
                   <c:v>Timekeeping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initiative</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FACTOR D</c:v>
+                  <c:v>Adapt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FACTOR E</c:v>
+                  <c:v>Code Skill</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FACTOR F</c:v>
+                  <c:v>Engage</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FACTOR G</c:v>
+                  <c:v>Criteria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teamwork</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:f>Sheet1!$I$5:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D457-4778-99E4-695079D555C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1050,7 +1133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PERSON E</c:v>
+                  <c:v>Mr. Thong</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1067,9 +1150,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Attendance</c:v>
                 </c:pt>
@@ -1077,53 +1160,64 @@
                   <c:v>Timekeeping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initiative</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FACTOR D</c:v>
+                  <c:v>Adapt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FACTOR E</c:v>
+                  <c:v>Code Skill</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FACTOR F</c:v>
+                  <c:v>Engage</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FACTOR G</c:v>
+                  <c:v>Criteria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teamwork</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$11</c:f>
+              <c:f>Sheet1!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D457-4778-99E4-695079D555C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1256,7 +1350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2408,18 +2501,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2444,12 +2543,18 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2729,11 +2834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,200 +2859,200 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
         <f>$B5*C5</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7">
         <f>$B5*E5</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="7">
         <f>$B5*G5</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <f>$B5*I5</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K5" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <f>$B5*K5</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:D12" si="0">$B6*C6</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F12" si="1">$B6*E6</f>
+        <v>100</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H12" si="2">$B6*G6</f>
+        <v>50</v>
+      </c>
+      <c r="I6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:D11" si="0">$B6*C6</f>
-        <v>72</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:F11" si="1">$B6*E6</f>
-        <v>45</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" ref="H6:H11" si="2">$B6*G6</f>
-        <v>54</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7</v>
-      </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:J11" si="3">$B6*I6</f>
-        <v>63</v>
+        <f t="shared" ref="J6:J12" si="3">$B6*I6</f>
+        <v>80</v>
       </c>
       <c r="K6" s="7">
         <v>4</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L11" si="4">$B6*K6</f>
-        <v>36</v>
+        <f t="shared" ref="L6:L12" si="4">$B6*K6</f>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
+      <c r="A7" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
+      <c r="A8" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E8" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7">
         <v>7</v>
@@ -2972,269 +3077,312 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
+      <c r="A9" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
+      <c r="A10" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="K10" s="7">
         <v>10</v>
-      </c>
-      <c r="K10" s="7">
-        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
+      <c r="A11" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
-        <f>SUM(B5:B11)</f>
-        <v>43</v>
-      </c>
-      <c r="C12" s="9">
-        <f>D12/$B12</f>
-        <v>7.0697674418604652</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" ref="D12:L12" si="5">SUM(D5:D11)</f>
-        <v>304</v>
-      </c>
-      <c r="E12" s="9">
-        <f>F12/$B12</f>
-        <v>5.8139534883720927</v>
-      </c>
-      <c r="F12" s="10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SUM(B5:B12)</f>
+        <v>60</v>
+      </c>
+      <c r="C13" s="8">
+        <f>D13/$B13</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ref="D13:L13" si="5">SUM(D5:D12)</f>
+        <v>460</v>
+      </c>
+      <c r="E13" s="8">
+        <f>F13/$B13</f>
+        <v>8.75</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="G12" s="9">
-        <f>H12/$B12</f>
-        <v>6.3953488372093021</v>
-      </c>
-      <c r="H12" s="10">
+        <v>525</v>
+      </c>
+      <c r="G13" s="8">
+        <f>H13/$B13</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="5"/>
-        <v>275</v>
-      </c>
-      <c r="I12" s="9">
-        <f>J12/$B12</f>
-        <v>6.8604651162790695</v>
-      </c>
-      <c r="J12" s="10">
+        <v>430</v>
+      </c>
+      <c r="I13" s="8">
+        <f>J13/$B13</f>
+        <v>8.5</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="5"/>
-        <v>295</v>
-      </c>
-      <c r="K12" s="9">
-        <f>L12/$B12</f>
-        <v>5.0930232558139537</v>
-      </c>
-      <c r="L12" s="4">
+        <v>510</v>
+      </c>
+      <c r="K13" s="8">
+        <f>L13/$B13</f>
+        <v>7.75</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
-        <f>C4</f>
-        <v>PERSON A</v>
-      </c>
-      <c r="B16" s="5">
-        <f>C12</f>
-        <v>7.0697674418604652</v>
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
-        <f>E4</f>
-        <v>PERSON B</v>
+        <f>C4</f>
+        <v>Mr. Trung</v>
       </c>
       <c r="B17" s="5">
-        <f>E12</f>
-        <v>5.8139534883720927</v>
+        <f>C13</f>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
-        <f>G4</f>
-        <v>PERSON C</v>
+        <f>E4</f>
+        <v>Mr. Phong</v>
       </c>
       <c r="B18" s="5">
-        <f>G12</f>
-        <v>6.3953488372093021</v>
+        <f>E13</f>
+        <v>8.75</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f>I4</f>
-        <v>PERSON D</v>
+        <f>G4</f>
+        <v>Mr. Hieu</v>
       </c>
       <c r="B19" s="5">
-        <f>I12</f>
-        <v>6.8604651162790695</v>
+        <f>G13</f>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f>K4</f>
-        <v>PERSON E</v>
+        <f>I4</f>
+        <v>Ms. Hue</v>
       </c>
       <c r="B20" s="5">
-        <f>K12</f>
-        <v>5.0930232558139537</v>
+        <f>I13</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
-        <v>16</v>
+      <c r="A21" s="2" t="str">
+        <f>K4</f>
+        <v>Mr. Thong</v>
+      </c>
+      <c r="B21" s="5">
+        <f>K13</f>
+        <v>7.75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O22" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B11 C5:C11 E5:E11 E5 G5:G11 G5 I5:I11 I5 K5:K11 K5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12 C5:C12 E5:E12 E5 G5:G12 G5 I5:I12 I5 K5:K12 K5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/Report Template/groupevaluatetemplate.xlsx
+++ b/Report Template/groupevaluatetemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdev2\Enterprise-Web-Software-Development\Report Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Java/Git/Enterprise-Web-Software-Development/Report Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70485961-99D3-4689-A50D-569AC5ABE09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3913297-E34C-1749-ADA9-F944812D37DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4890" windowWidth="14025" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14800" yWindow="7840" windowWidth="14020" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Mr. Trung</t>
   </si>
   <si>
-    <t>Mr. Phong</t>
-  </si>
-  <si>
     <t>Mr. Hieu</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Criteria</t>
+  </si>
+  <si>
+    <t>Mr. Vinh</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -410,7 +410,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-VN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -449,7 +449,7 @@
                   <c:v>Mr. Trung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mr. Phong</c:v>
+                  <c:v>Mr. Vinh</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mr. Hieu</c:v>
@@ -470,19 +470,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.166666666666667</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.75</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222455992"/>
@@ -605,7 +605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222456384"/>
@@ -657,7 +657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -733,7 +733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -807,25 +807,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -848,7 +848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mr. Phong</c:v>
+                  <c:v>Mr. Vinh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -902,25 +902,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -1000,22 +1000,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -1098,19 +1098,19 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -1190,25 +1190,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222447016"/>
@@ -1333,7 +1333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="131705560"/>
@@ -1375,7 +1375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1405,7 +1405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2837,27 +2837,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="0.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -2865,18 +2865,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -2888,66 +2888,66 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <f>$B5*C5</f>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E5" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7">
         <f>$B5*E5</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7">
         <v>5</v>
       </c>
       <c r="H5" s="7">
         <f>$B5*G5</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
       </c>
       <c r="J5" s="7">
         <f>$B5*I5</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7">
         <v>10</v>
       </c>
       <c r="L5">
         <f>$B5*K5</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -2955,25 +2955,25 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ref="D6:D12" si="0">$B6*C6</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" ref="F6:F12" si="1">$B6*E6</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ref="H6:H12" si="2">$B6*G6</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7">
         <v>8</v>
@@ -2983,16 +2983,16 @@
         <v>80</v>
       </c>
       <c r="K6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L12" si="4">$B6*K6</f>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
@@ -3005,25 +3005,25 @@
         <v>80</v>
       </c>
       <c r="E7" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7">
         <v>5</v>
@@ -3033,26 +3033,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7">
         <v>7</v>
@@ -3062,152 +3062,152 @@
         <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G9" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
         <v>8</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K9" s="7">
         <v>5</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
         <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E11" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -3241,63 +3241,63 @@
         <v>60</v>
       </c>
       <c r="K12" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9">
         <f>SUM(B5:B12)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C13" s="8">
         <f>D13/$B13</f>
-        <v>7.666666666666667</v>
+        <v>6.625</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ref="D13:L13" si="5">SUM(D5:D12)</f>
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="E13" s="8">
         <f>F13/$B13</f>
-        <v>8.75</v>
+        <v>6.625</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="5"/>
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G13" s="8">
         <f>H13/$B13</f>
-        <v>7.166666666666667</v>
+        <v>7.125</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="5"/>
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="I13" s="8">
         <f>J13/$B13</f>
-        <v>8.5</v>
+        <v>7.875</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="5"/>
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="K13" s="8">
         <f>L13/$B13</f>
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="5"/>
-        <v>465</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -3305,77 +3305,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f>C4</f>
         <v>Mr. Trung</v>
       </c>
       <c r="B17" s="5">
         <f>C13</f>
-        <v>7.666666666666667</v>
+        <v>6.625</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
         <f>E4</f>
-        <v>Mr. Phong</v>
+        <v>Mr. Vinh</v>
       </c>
       <c r="B18" s="5">
         <f>E13</f>
-        <v>8.75</v>
+        <v>6.625</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f>G4</f>
         <v>Mr. Hieu</v>
       </c>
       <c r="B19" s="5">
         <f>G13</f>
-        <v>7.166666666666667</v>
+        <v>7.125</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f>I4</f>
         <v>Ms. Hue</v>
       </c>
       <c r="B20" s="5">
         <f>I13</f>
-        <v>8.5</v>
+        <v>7.875</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f>K4</f>
         <v>Mr. Thong</v>
       </c>
       <c r="B21" s="5">
         <f>K13</f>
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>13</v>
       </c>
